--- a/daily_playerstats1.xlsx
+++ b/daily_playerstats1.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I322"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14259,6 +14259,608 @@
         <v>14</v>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>R$47.605,08</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>R$334.029,47</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>3863</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>$8.235,68</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>$57.787,10</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>R$68.871,57</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>R$256.531,17</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>3764</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>$11.914,78</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>$44.379,89</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>01/2024</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>R$-973,77</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>R$26.395,43</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>467</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>$-168,46</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>$4.566,41</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>02/2024</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>R$12.485,59</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>R$27.603,13</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>501</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>$2.160,01</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>$4.775,34</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>03/2024</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>R$12.516,57</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>R$42.782,24</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>454</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>$2.165,37</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>$7.401,33</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>04/2024</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>R$17.007,67</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>R$35.917,03</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>594</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>$2.942,33</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>$6.213,65</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>05/2024</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>R$16.921,39</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>R$59.693,48</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>946</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>$2.927,40</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>$10.326,97</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>06/2024</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>R$22.373,29</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>R$82.935,04</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>1229</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>$3.870,58</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>$14.347,76</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>07/2024</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>R$27.316,54</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>R$82.117,53</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>1252</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>$4.725,76</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>$14.206,33</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>08/2024</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>R$33.552,86</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>R$101.579,48</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>1578</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>$5.804,64</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>$17.573,25</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>09/2024</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>R$6.590,44</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>R$106.558,12</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>1708</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>$1.140,15</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>$18.434,55</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>10/2024</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>R$37.137,28</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>R$153.110,39</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>2780</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>$6.424,75</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>$26.488,10</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>11/2024</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>R$37.441,54</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>R$188.706,47</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>4168</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>$6.477,39</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>$32.646,22</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>R$338.846,05</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>R$1.497.958,98</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>23304</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>$58.620,37</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>$259.146,90</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>18/11/2024</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>94d30e26-2298-4f79-a60d-9fdf3c23aa51</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
